--- a/Data from Paho/excels/2014/excel/CHIKV-cases-2014-Feb-14-ew-07.xlsx
+++ b/Data from Paho/excels/2014/excel/CHIKV-cases-2014-Feb-14-ew-07.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chikonguniya\Data from Paho\excels\2014\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A61A2040-1902-4827-905B-43307B2BA6E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19230" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Latin Caribbean</t>
   </si>
@@ -113,15 +119,6 @@
   </si>
   <si>
     <t>NOTES</t>
-  </si>
-  <si>
-    <t>Country/Territory</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
   <si>
     <t>Weeka</t>
@@ -196,8 +193,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +231,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -280,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,9 +317,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,6 +369,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,59 +562,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
       <c r="H2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="F4">
@@ -583,14 +616,14 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="F5">
@@ -600,17 +633,17 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
       <c r="F6">
@@ -623,14 +656,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="D7">
         <v>253</v>
       </c>
       <c r="F7">
@@ -643,11 +676,11 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="F8">
@@ -657,17 +690,17 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
+        <v>34</v>
+      </c>
+      <c r="D9">
         <v>844</v>
       </c>
       <c r="F9">
@@ -680,11 +713,11 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="F10">
@@ -694,21 +727,21 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
+        <v>34</v>
+      </c>
+      <c r="D11">
         <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -717,32 +750,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="D12">
         <v>653</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>37</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -751,22 +781,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <v>5</v>
       </c>
       <c r="F15">
@@ -779,11 +809,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="D16">
         <v>0</v>
       </c>
       <c r="F16">
@@ -796,14 +826,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="F17">
@@ -816,11 +846,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="E18">
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="F18">
@@ -833,11 +863,11 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="E19">
+      <c r="D19">
         <v>0</v>
       </c>
       <c r="F19">
@@ -850,11 +880,11 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>0</v>
       </c>
       <c r="F20">
@@ -867,11 +897,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>0</v>
       </c>
       <c r="F21">
@@ -884,14 +914,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
+        <v>34</v>
+      </c>
+      <c r="D22">
         <v>45</v>
       </c>
       <c r="F22">
@@ -904,11 +934,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>0</v>
       </c>
       <c r="F23">
@@ -921,11 +951,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
-      <c r="B24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>0</v>
       </c>
       <c r="F24">
@@ -938,11 +968,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>0</v>
       </c>
       <c r="F25">
@@ -952,14 +982,14 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="E26">
+      <c r="D26">
         <v>0</v>
       </c>
       <c r="F26">
@@ -972,11 +1002,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="E27">
+      <c r="D27">
         <v>0</v>
       </c>
       <c r="F27">
@@ -989,11 +1019,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="E28">
+      <c r="D28">
         <v>0</v>
       </c>
       <c r="F28">
@@ -1006,11 +1036,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
-      <c r="B29" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
+      <c r="D29">
         <v>0</v>
       </c>
       <c r="F29">
@@ -1023,14 +1053,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
       <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="D30">
         <v>65</v>
       </c>
       <c r="F30">
@@ -1043,11 +1073,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="E31">
+      <c r="D31">
         <v>0</v>
       </c>
       <c r="F31">
@@ -1060,11 +1090,11 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
-      <c r="B32" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="E32">
+      <c r="D32">
         <v>0</v>
       </c>
       <c r="F32">
@@ -1074,14 +1104,14 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="E33">
+      <c r="D33">
         <v>0</v>
       </c>
       <c r="F33">
@@ -1094,14 +1124,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
       <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34">
+        <v>35</v>
+      </c>
+      <c r="D34">
         <v>5</v>
       </c>
       <c r="F34">
@@ -1114,11 +1144,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
-      <c r="B35" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="E35">
+      <c r="D35">
         <v>0</v>
       </c>
       <c r="F35">
@@ -1131,11 +1161,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36">
         <v>121</v>
       </c>
       <c r="F36">
@@ -1145,28 +1172,25 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>38</v>
       </c>
       <c r="F37">
         <v>4.5</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
